--- a/biology/Botanique/Clematis_patens_'Asao'/Clematis_patens_'Asao'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Asao'/Clematis_patens_'Asao'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Asao%27</t>
+          <t>Clematis_patens_'Asao'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Asao'  est un cultivar de clématite obtenu en 1971 par Kasushige Ozawa au Japon. Le nom de cette clématite correspond à la ville de Asao au Japon où vit l'obtenteur de ce cultivar.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Asao%27</t>
+          <t>Clematis_patens_'Asao'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui implique une floraison printanière sur le bois de l'année précédente et sur la pousse de l'été à l'automne.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes. Au printemps le feuillage est légèrement bronze[1].
-Fleurs
-La clématite patens 'Asao' dispose d'une grande fleur rose pâle avec une barre blanche au cœur des sépales. La fleur a un diamètre d'environ 16 cm apparaissant parfois double sur la première floraison du printemps. Ce cultivar dispose de fleurs hermaphrodites.
-Sépales
-La fleur de cette clématite a entre 8 et 10 sépales roses couverts d'une bande transversale blanche. Les sépales sont lancéolés et étroitement elliptiques et pointus d'une taille de 6 à 8 cm[2].
-Étamines et stigmates
-Les étamines de cette clématite sont blanches. Les stigmates sont quant à eux jaunes.
-Parfum
-Cette clématite dégage un léger parfum sucré sur les fleurs du printemps[3].
 </t>
         </is>
       </c>
@@ -534,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Asao%27</t>
+          <t>Clematis_patens_'Asao'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Asao' a été obtenue par le croisement de clématite patens 'Ernest Markham' et de clématite patens Star of India'.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes. Au printemps le feuillage est légèrement bronze.
 </t>
         </is>
       </c>
@@ -565,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Asao%27</t>
+          <t>Clematis_patens_'Asao'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Asao' est un cultivar libre de multiplication et de distribution.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Asao' dispose d'une grande fleur rose pâle avec une barre blanche au cœur des sépales. La fleur a un diamètre d'environ 16 cm apparaissant parfois double sur la première floraison du printemps. Ce cultivar dispose de fleurs hermaphrodites.
 </t>
         </is>
       </c>
@@ -596,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Asao%27</t>
+          <t>Clematis_patens_'Asao'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,26 +627,430 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur de cette clématite a entre 8 et 10 sépales roses couverts d'une bande transversale blanche. Les sépales sont lancéolés et étroitement elliptiques et pointus d'une taille de 6 à 8 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les étamines de cette clématite sont blanches. Les stigmates sont quant à eux jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite dégage un léger parfum sucré sur les fleurs du printemps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Asao' a été obtenue par le croisement de clématite patens 'Ernest Markham' et de clématite patens Star of India'.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Asao' est un cultivar libre de multiplication et de distribution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite 'Asao' s'épanouit très bien en pot[1] ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger en prenant soin de protéger la base des rayons du soleil.
-Croissance
-À taille adulte cette clématite s'élance entre 2 et 3 mètres en gardant un feuillage très dense.
-Floraison
-'Asao' fleurit de mai à juin sur le bois de l'année précédente et de septembre à octobre sur la pousse de l'été.
-Utilisation
-La clématite 'Asao' peut être utilisée en association avec des rosiers ou des arbustes à faible développement.
-Cette clématite dispose également d'une tige rigide qui lui permet donc d'être utilisée en fleurs coupées[4].
-Taille
-La clématite 'Asao' a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm sur un tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite 'asao' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit. Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Asao' s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger en prenant soin de protéger la base des rayons du soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite s'élance entre 2 et 3 mètres en gardant un feuillage très dense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Asao' fleurit de mai à juin sur le bois de l'année précédente et de septembre à octobre sur la pousse de l'été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Asao' peut être utilisée en association avec des rosiers ou des arbustes à faible développement.
+Cette clématite dispose également d'une tige rigide qui lui permet donc d'être utilisée en fleurs coupées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Asao' a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm sur un tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Asao'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Asao%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'asao' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit. Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 </t>
         </is>
       </c>
